--- a/export_lista_fiis_investimentos['Outros'].xlsx
+++ b/export_lista_fiis_investimentos['Outros'].xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -562,21 +562,21 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BTAL11</t>
+          <t>BPFF11</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>95,00</t>
+          <t>64,50</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FUNDO DE INVESTIMENTO IMOBILIÁRIO BTG PACTUAL AGRO LOGÍSTICA</t>
+          <t>FUNDO DE INVESTIMENTO IMOBILIÁRIO - FII BRASIL PLURAL ABSOLUTO FUNDO DE FUNDOS</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -590,53 +590,53 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>7.2</v>
+        <v>10.6</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>6.94</t>
+          <t>6.87</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>5.982.736</t>
+          <t>4.492.326</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>904429</v>
+        <v>374004</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BTRA11</t>
+          <t>BTAL11</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>99,39</t>
+          <t>95,00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>FUNDO DE INVESTIMENTO IMOBILIÁRIO BTG PACTUAL TERRAS AGRÍCOLAS</t>
+          <t>FUNDO DE INVESTIMENTO IMOBILIÁRIO BTG PACTUAL AGRO LOGÍSTICA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -650,53 +650,53 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4.6</v>
+        <v>7.2</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>6.94</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>3.4</v>
+        <v>7.8</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>3.364.559</t>
+          <t>5.982.736</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>650363</v>
+        <v>904429</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>216</v>
+        <v>40</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>RBVA11</t>
+          <t>BTRA11</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>95,50</t>
+          <t>99,39</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FUNDO DE INVESTIMENTO IMOBILIÁRIO RIO BRAVO RENDA VAREJO - FII</t>
+          <t>FUNDO DE INVESTIMENTO IMOBILIÁRIO BTG PACTUAL TERRAS AGRÍCOLAS</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -710,93 +710,633 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>11.3</v>
+        <v>4.6</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>10.94</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>12.5</v>
+        <v>3.4</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>83</v>
+        <v>6</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>11.588.199</t>
+          <t>3.364.559</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>786917</v>
+        <v>650363</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>FCFL11</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>113,79</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>FII CAMPUS FARIA LIMA</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>11/02/2022</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>3.474.010</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>419302</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>HUSC11</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>108,00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>FUNDO DE INVESTIMENTO IMOBILIARIO HOSPITAL UNIMED SUL CAPIXABA</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>11/02/2022</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>794.613</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
+        <v>207174</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>QAGR11</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>50,00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>QUASAR AGRO - FUNDO DE INVESTIMENTO IMOBILIARIO</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>11/02/2022</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>12</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>5.040.000</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>488993</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>RBED11</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>119,94</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>FUNDO DE INVESTIMENTO IMOBILIÁRIO RIO BRAVO RENDA EDUCACIONAL- FII</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>11/02/2022</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>12.33</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>6</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>2.021.621</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
+        <v>205295</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>RBVA11</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>95,50</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>FUNDO DE INVESTIMENTO IMOBILIÁRIO RIO BRAVO RENDA VAREJO - FII</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>11/02/2022</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>10.94</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>83</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>11.588.199</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
+        <v>786917</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>URPR11</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>116,23</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>URCA PRIME RENDA FUNDO DE INVESTIMENTO IMOBILIÁRIO - FII</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>11/02/2022</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>12.70</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>3.652.937</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
+        <v>4047960</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>VIUR11</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>78,70</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>VINCI IMOVEIS URBANOS FUNDO DE INVESTIMENTO IMOBILIARIO</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>11/02/2022</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>5</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>2.694.622</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
+        <v>307566</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>VSLH11</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>9,48</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>VERSALHES RECEBÍVEIS IMOBILIÁRIOS - FUNDO DE INVESTIMENTO IMOBILIÁRIO</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>11/02/2022</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>29.864.091</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
+        <v>1568740</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>VXXV11</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>863,00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>VX XVI - FUNDO DE INVESTIMENTO IMOBILIÁRIO</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>12/01/2022</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>176.778</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
+        <v>271678</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
         <v>286</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>XPPR11</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>60,68</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>XP PROPERTIES FUNDO DE INVESTIMENTO IMOBILIÁRIO - FII</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>11/02/2022</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Outros</t>
         </is>
       </c>
-      <c r="G6" t="n">
+      <c r="G15" t="n">
         <v>10.1</v>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>6.15</t>
         </is>
       </c>
-      <c r="I6" t="n">
+      <c r="I15" t="n">
         <v>6.7</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="inlineStr">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>0.76</t>
         </is>
       </c>
-      <c r="L6" t="n">
+      <c r="L15" t="n">
         <v>6</v>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>7.316.171</t>
         </is>
       </c>
-      <c r="N6" t="n">
+      <c r="N15" t="n">
         <v>1111610</v>
       </c>
     </row>
